--- a/outputs-HGR-r202-archive/f__Fusobacteriaceae.xlsx
+++ b/outputs-HGR-r202-archive/f__Fusobacteriaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,41 +516,6 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT88709.fa</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.0001117809429739471</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1.077139167835436e-07</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.9998246238684301</v>
-      </c>
-      <c r="E3" t="n">
-        <v>6.326799262735041e-05</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2.194820517062759e-07</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.9998246238684301</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>g__Fusobacterium_A</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>g__Fusobacterium_A</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
